--- a/exampleProblems/ethyleneDiamine/ethyleneDiamine.xlsx
+++ b/exampleProblems/ethyleneDiamine/ethyleneDiamine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ethyleneDiamine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3E8E6FF38040EC8A1BD1312E254A55E76EE3783D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9EB336-AB65-463D-9462-E48567B1F77D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3E8E6FF38040EC8A1BD1312E254A55E76EE3783D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B868950B-CFDF-429C-8B9B-C4609A949BEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CCC2Cc1ccccc1C2=O</t>
   </si>
 </sst>
 </file>
@@ -655,25 +661,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4546,9 +4558,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4769,27 +4784,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4814,9 +4817,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ethyleneDiamine/ethyleneDiamine.xlsx
+++ b/exampleProblems/ethyleneDiamine/ethyleneDiamine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ethyleneDiamine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3E8E6FF38040EC8A1BD1312E254A55E76EE3783D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B868950B-CFDF-429C-8B9B-C4609A949BEF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1B5B6F352AD0005635F3E51CCB4B55276CBFB855" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DDF77B-105F-7B4E-B35A-2872DDB48B9E}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -238,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,13 +664,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>62</v>
       </c>
@@ -677,7 +682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -701,12 +706,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -733,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -762,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -791,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -820,7 +825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -849,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -878,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -907,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -936,7 +941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -965,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -994,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1037,9 +1042,9 @@
       <selection activeCell="M1" sqref="M1:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -1072,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1104,7 +1109,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1136,7 +1141,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1168,7 +1173,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1200,7 +1205,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1231,7 +1236,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1263,7 +1268,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1295,7 +1300,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1359,7 +1364,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1391,10 +1396,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1408,12 +1413,12 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -1457,7 +1462,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1490,7 +1495,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1556,7 +1561,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1589,7 +1594,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1622,7 +1627,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1655,7 +1660,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1688,7 +1693,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1721,7 +1726,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1754,7 +1759,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1787,7 +1792,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1820,7 +1825,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1853,7 +1858,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1886,7 +1891,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1952,7 +1957,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1985,7 +1990,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2027,7 +2032,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2056,7 +2061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2201,7 +2206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2473,7 +2478,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2498,9 +2503,9 @@
       <selection activeCell="L1" sqref="L1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -2544,7 +2549,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2575,7 +2580,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2606,7 +2611,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2637,7 +2642,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2668,7 +2673,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2699,7 +2704,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2730,7 +2735,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2761,7 +2766,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2792,7 +2797,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2823,7 +2828,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2854,7 +2859,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2885,7 +2890,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2916,7 +2921,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2947,7 +2952,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2978,7 +2983,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3009,7 +3014,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3040,7 +3045,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3071,7 +3076,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3102,7 +3107,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3133,7 +3138,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3164,7 +3169,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3195,7 +3200,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3226,7 +3231,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3288,7 +3293,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3319,7 +3324,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3350,7 +3355,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3381,7 +3386,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3443,7 +3448,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3474,7 +3479,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3505,7 +3510,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3536,7 +3541,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3567,7 +3572,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3598,7 +3603,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3629,7 +3634,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3660,7 +3665,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3691,7 +3696,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3722,7 +3727,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3753,7 +3758,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3784,7 +3789,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3815,7 +3820,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3846,7 +3851,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3877,7 +3882,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3922,9 +3927,9 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>47</v>
@@ -3951,7 +3956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3976,7 +3981,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4001,7 +4006,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4026,7 +4031,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4051,7 +4056,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4076,7 +4081,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4101,7 +4106,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4126,7 +4131,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4151,7 +4156,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4176,7 +4181,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4201,7 +4206,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4226,7 +4231,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4237,7 +4242,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4248,7 +4253,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4273,9 +4278,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>47</v>
@@ -4302,7 +4307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4377,7 +4382,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4402,7 +4407,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4427,7 +4432,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4452,7 +4457,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4477,7 +4482,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4502,7 +4507,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4527,7 +4532,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4551,6 +4556,54 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77ABFB4-E6DD-6E48-AFCE-3C3380CB0627}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4819,15 +4872,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
